--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56077.7602823781</v>
+        <v>53198.81000705579</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>296.2253488071175</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>91.8022712357414</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>218.2675764033276</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7695689056633</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>70.03418953493004</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>50.05665370612868</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>298.4042397650983</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>136.7169362854108</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>99.66075074687578</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>208.3423105940807</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.7827993952602</v>
       </c>
       <c r="H8" t="n">
-        <v>285.5705803508068</v>
+        <v>245.9550020909793</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.39230501855774</v>
+        <v>54.39230501855771</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.442320444379</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2240578582465</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1230,7 +1230,7 @@
         <v>104.3812715448344</v>
       </c>
       <c r="I9" t="n">
-        <v>61.39697089430916</v>
+        <v>61.39697089430915</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.6657048959818</v>
+        <v>49.66570489598179</v>
       </c>
       <c r="S9" t="n">
         <v>156.577620990673</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42807890238588</v>
       </c>
       <c r="E10" t="n">
-        <v>76.64456457388475</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.165422573704</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.07126754654313</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0324785194311</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1585,7 +1585,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>113.7626965853549</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1661,7 +1661,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590266</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,7 +1822,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>114.9837094249561</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>76.34924850973036</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>74.75769145492248</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.26221019674241</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365925</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.65913193862787</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>159.6485136801242</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>1.749532638429879</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>152.3109979556811</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S28" t="n">
         <v>181.3384883584589</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
         <v>286.1854515484204</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>162.3637897180519</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>83.55410938282819</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S31" t="n">
         <v>181.3384883584591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,13 +3244,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>111.6910841413357</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,10 +3481,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>245.4109786013537</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.598665406407</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>25.52471385612643</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.096775397715</v>
+        <v>1449.02939943202</v>
       </c>
       <c r="C2" t="n">
-        <v>1250.096775397715</v>
+        <v>1080.066882491608</v>
       </c>
       <c r="D2" t="n">
-        <v>891.8310767909641</v>
+        <v>780.849358444015</v>
       </c>
       <c r="E2" t="n">
-        <v>891.8310767909641</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2026.835947437648</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2026.835947437648</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>2026.835947437648</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y2" t="n">
-        <v>1636.696615461836</v>
+        <v>1835.629239496142</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.5052582912015</v>
+        <v>124.6845874112029</v>
       </c>
       <c r="C4" t="n">
-        <v>104.5052582912015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>104.5052582912015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>104.5052582912015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>104.5052582912015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V4" t="n">
-        <v>325.2978374347316</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W4" t="n">
-        <v>325.2978374347316</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="X4" t="n">
-        <v>325.2978374347316</v>
+        <v>124.6845874112029</v>
       </c>
       <c r="Y4" t="n">
-        <v>104.5052582912015</v>
+        <v>124.6845874112029</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2001.758776122685</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="C5" t="n">
-        <v>1632.796259182274</v>
+        <v>898.3702206415335</v>
       </c>
       <c r="D5" t="n">
-        <v>1632.796259182274</v>
+        <v>540.104522034783</v>
       </c>
       <c r="E5" t="n">
-        <v>1247.008006584029</v>
+        <v>540.104522034783</v>
       </c>
       <c r="F5" t="n">
-        <v>836.0221017944218</v>
+        <v>533.1590212855796</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>519.2356172241705</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>192.0408972601733</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>2388.358616186807</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y5" t="n">
-        <v>2388.358616186807</v>
+        <v>1284.970060705655</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4662,25 +4662,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.6822058285749</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>517.6822058285749</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>517.6822058285749</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X7" t="n">
-        <v>517.6822058285749</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.6822058285749</v>
+        <v>154.6104068172087</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1926.128896551321</v>
+        <v>1840.33845550168</v>
       </c>
       <c r="C8" t="n">
-        <v>1557.166379610909</v>
+        <v>1471.375938561268</v>
       </c>
       <c r="D8" t="n">
-        <v>1557.166379610909</v>
+        <v>1113.110239954518</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.378127012665</v>
+        <v>727.3219873562732</v>
       </c>
       <c r="F8" t="n">
-        <v>760.3922222230572</v>
+        <v>720.3764866070698</v>
       </c>
       <c r="G8" t="n">
-        <v>342.4297985914812</v>
+        <v>302.4140629754938</v>
       </c>
       <c r="H8" t="n">
-        <v>53.97466692399961</v>
+        <v>53.97466692399962</v>
       </c>
       <c r="I8" t="n">
-        <v>53.97466692399961</v>
+        <v>53.97466692399962</v>
       </c>
       <c r="J8" t="n">
-        <v>169.8576899846486</v>
+        <v>169.8576899846485</v>
       </c>
       <c r="K8" t="n">
-        <v>464.2811062254479</v>
+        <v>464.2811062254477</v>
       </c>
       <c r="L8" t="n">
-        <v>881.8160163137436</v>
+        <v>881.8160163137437</v>
       </c>
       <c r="M8" t="n">
         <v>1363.010599624217</v>
       </c>
       <c r="N8" t="n">
-        <v>1837.359416820289</v>
+        <v>1837.35941682029</v>
       </c>
       <c r="O8" t="n">
         <v>2240.08591611906</v>
       </c>
       <c r="P8" t="n">
-        <v>2546.129282956165</v>
+        <v>2546.129282956166</v>
       </c>
       <c r="Q8" t="n">
         <v>2698.733346199981</v>
       </c>
       <c r="R8" t="n">
-        <v>2643.791623959013</v>
+        <v>2643.791623959014</v>
       </c>
       <c r="S8" t="n">
-        <v>2643.791623959013</v>
+        <v>2643.791623959014</v>
       </c>
       <c r="T8" t="n">
-        <v>2643.791623959013</v>
+        <v>2425.16301744954</v>
       </c>
       <c r="U8" t="n">
-        <v>2643.791623959013</v>
+        <v>2171.40134284525</v>
       </c>
       <c r="V8" t="n">
-        <v>2312.728736615442</v>
+        <v>1840.33845550168</v>
       </c>
       <c r="W8" t="n">
-        <v>2312.728736615442</v>
+        <v>1840.33845550168</v>
       </c>
       <c r="X8" t="n">
-        <v>2312.728736615442</v>
+        <v>1840.33845550168</v>
       </c>
       <c r="Y8" t="n">
-        <v>2312.728736615442</v>
+        <v>1840.33845550168</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9918092414836</v>
       </c>
       <c r="I9" t="n">
-        <v>53.97466692399961</v>
+        <v>53.97466692399962</v>
       </c>
       <c r="J9" t="n">
-        <v>53.97466692399961</v>
+        <v>129.3004218977354</v>
       </c>
       <c r="K9" t="n">
-        <v>309.339222998655</v>
+        <v>384.6649779723907</v>
       </c>
       <c r="L9" t="n">
-        <v>714.1127788714198</v>
+        <v>669.9805907224948</v>
       </c>
       <c r="M9" t="n">
-        <v>1238.443648280024</v>
+        <v>1194.311460131099</v>
       </c>
       <c r="N9" t="n">
-        <v>1792.359008994137</v>
+        <v>1748.226820845212</v>
       </c>
       <c r="O9" t="n">
-        <v>2232.667669646921</v>
+        <v>2188.535481497996</v>
       </c>
       <c r="P9" t="n">
-        <v>2569.051120440602</v>
+        <v>2524.918932291677</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.084591439862</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>439.2529095157179</v>
+        <v>69.55858500721769</v>
       </c>
       <c r="C10" t="n">
-        <v>439.2529095157179</v>
+        <v>69.55858500721769</v>
       </c>
       <c r="D10" t="n">
-        <v>289.1362701033822</v>
+        <v>53.97466692399962</v>
       </c>
       <c r="E10" t="n">
-        <v>211.7175180085491</v>
+        <v>53.97466692399962</v>
       </c>
       <c r="F10" t="n">
-        <v>211.7175180085491</v>
+        <v>53.97466692399962</v>
       </c>
       <c r="G10" t="n">
-        <v>211.7175180085491</v>
+        <v>53.97466692399962</v>
       </c>
       <c r="H10" t="n">
-        <v>53.97466692399961</v>
+        <v>53.97466692399962</v>
       </c>
       <c r="I10" t="n">
-        <v>53.97466692399961</v>
+        <v>53.97466692399962</v>
       </c>
       <c r="J10" t="n">
-        <v>53.97466692399961</v>
+        <v>53.97466692399962</v>
       </c>
       <c r="K10" t="n">
-        <v>110.3475760609651</v>
+        <v>110.3475760609652</v>
       </c>
       <c r="L10" t="n">
         <v>238.0119258459252</v>
       </c>
       <c r="M10" t="n">
-        <v>383.0052059260079</v>
+        <v>383.005205926008</v>
       </c>
       <c r="N10" t="n">
-        <v>529.9854863035551</v>
+        <v>529.9854863035553</v>
       </c>
       <c r="O10" t="n">
-        <v>649.7292691654716</v>
+        <v>649.7292691654717</v>
       </c>
       <c r="P10" t="n">
-        <v>728.6700795526785</v>
+        <v>728.6700795526787</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.6700795526785</v>
+        <v>699.3051628389987</v>
       </c>
       <c r="R10" t="n">
-        <v>728.6700795526785</v>
+        <v>699.3051628389987</v>
       </c>
       <c r="S10" t="n">
-        <v>728.6700795526785</v>
+        <v>699.3051628389987</v>
       </c>
       <c r="T10" t="n">
-        <v>728.6700795526785</v>
+        <v>471.9996289809875</v>
       </c>
       <c r="U10" t="n">
-        <v>728.6700795526785</v>
+        <v>471.9996289809875</v>
       </c>
       <c r="V10" t="n">
-        <v>728.6700795526785</v>
+        <v>471.9996289809875</v>
       </c>
       <c r="W10" t="n">
-        <v>439.2529095157179</v>
+        <v>471.9996289809875</v>
       </c>
       <c r="X10" t="n">
-        <v>439.2529095157179</v>
+        <v>471.9996289809875</v>
       </c>
       <c r="Y10" t="n">
-        <v>439.2529095157179</v>
+        <v>251.2070498374574</v>
       </c>
     </row>
     <row r="11">
@@ -5018,46 +5018,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3610.459375831136</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5066,19 +5066,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5109,7 +5109,7 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
@@ -5118,13 +5118,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>410.7144041584436</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1330.562169067191</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1041.144999030231</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>813.1554481322135</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>592.3628689886833</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="14">
@@ -5255,49 +5255,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>836.0059675195635</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1287.040180767972</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,13 +5309,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,16 +5385,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>409.4810578558161</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>409.4810578558161</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>409.4810578558161</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558161</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558161</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1329.328822764564</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1039.911652727603</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>811.9221018295859</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>591.1295226860558</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5507,31 +5507,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>416.3606924710451</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>750.1800661608916</v>
+        <v>1099.399357643587</v>
       </c>
       <c r="L17" t="n">
-        <v>1614.698881814246</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M17" t="n">
-        <v>2593.249184644075</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870722</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5598,7 +5598,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.6138567886371</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C19" t="n">
-        <v>245.6776738607302</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1879.223013064572</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1879.223013064572</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1657.456397634098</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1368.353530759742</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1113.669042553855</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>824.2518725168941</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>596.2623216188767</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>596.2623216188767</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5732,55 +5732,55 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2368.748013620956</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N20" t="n">
-        <v>3044.228895027648</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906985</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5862,7 +5862,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>708.7441371531723</v>
+        <v>171.0738540998313</v>
       </c>
       <c r="C22" t="n">
-        <v>539.8079542252655</v>
+        <v>171.0738540998313</v>
       </c>
       <c r="D22" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1917.694768936276</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1917.694768936276</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1917.694768936276</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1628.59190206192</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1628.59190206192</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1339.174732024959</v>
+        <v>619.8559841413787</v>
       </c>
       <c r="X22" t="n">
-        <v>1111.185181126942</v>
+        <v>391.8664332433614</v>
       </c>
       <c r="Y22" t="n">
-        <v>890.3926019834121</v>
+        <v>171.0738540998313</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5996,43 +5996,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6063,37 +6063,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.4168978689405</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1475.554715057174</v>
+        <v>1002.696517454809</v>
       </c>
       <c r="W25" t="n">
-        <v>1186.137545020213</v>
+        <v>713.2793474178487</v>
       </c>
       <c r="X25" t="n">
-        <v>958.1479941221958</v>
+        <v>485.2897965198314</v>
       </c>
       <c r="Y25" t="n">
-        <v>737.3554149786656</v>
+        <v>264.4972173763013</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160706</v>
@@ -6233,19 +6233,19 @@
         <v>1462.494387944179</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883217</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6300,31 +6300,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160703</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K27" t="n">
-        <v>302.0892292003537</v>
+        <v>573.0441050413352</v>
       </c>
       <c r="L27" t="n">
-        <v>792.8215620441057</v>
+        <v>573.0441050413352</v>
       </c>
       <c r="M27" t="n">
-        <v>1384.839916296234</v>
+        <v>1165.062459293464</v>
       </c>
       <c r="N27" t="n">
-        <v>2006.935879695571</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1003.426421418249</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C28" t="n">
-        <v>834.4902384903422</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D28" t="n">
-        <v>684.3735990780065</v>
+        <v>324.3923273344132</v>
       </c>
       <c r="E28" t="n">
-        <v>536.4605054956133</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="F28" t="n">
-        <v>389.570557997703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="G28" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
@@ -6406,28 +6406,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S28" t="n">
-        <v>2246.242309074627</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T28" t="n">
-        <v>2246.242309074627</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U28" t="n">
-        <v>1957.166095389354</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V28" t="n">
-        <v>1702.481607183467</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W28" t="n">
-        <v>1413.064437146506</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X28" t="n">
-        <v>1185.074886248489</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y28" t="n">
-        <v>1185.074886248489</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E29" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963571</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127636</v>
@@ -6467,10 +6467,10 @@
         <v>842.9746074383984</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944171</v>
+        <v>1513.293909294992</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883205</v>
+        <v>2234.298471234026</v>
       </c>
       <c r="N29" t="n">
         <v>2971.58344915113</v>
@@ -6494,19 +6494,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.84834815160706</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160706</v>
+        <v>94.88738072612932</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160706</v>
+        <v>163.4947075553282</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160706</v>
+        <v>163.4947075553282</v>
       </c>
       <c r="L30" t="n">
-        <v>584.5806809953565</v>
+        <v>654.2270403990776</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.599035247482</v>
+        <v>1246.245394651203</v>
       </c>
       <c r="N30" t="n">
-        <v>1798.694998646816</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.571473647008</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695767</v>
+        <v>2287.924876476611</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695767</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.3922759648285</v>
+        <v>495.0957149475921</v>
       </c>
       <c r="C31" t="n">
-        <v>632.4560930369216</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="D31" t="n">
-        <v>632.4560930369216</v>
+        <v>241.7614417340002</v>
       </c>
       <c r="E31" t="n">
-        <v>632.4560930369216</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="F31" t="n">
-        <v>485.5661455390112</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="G31" t="n">
-        <v>318.3519507135901</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520204</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160706</v>
@@ -6643,28 +6643,28 @@
         <v>2429.412499335687</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074617</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T31" t="n">
-        <v>2026.563526788999</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U31" t="n">
-        <v>1737.487313103726</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V31" t="n">
-        <v>1482.802824897839</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W31" t="n">
-        <v>1193.385654860878</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X31" t="n">
-        <v>965.3961039628607</v>
+        <v>897.536758921362</v>
       </c>
       <c r="Y31" t="n">
-        <v>965.3961039628607</v>
+        <v>676.7441797778318</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1642.612280691864</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,13 +6968,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591808</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1440.495976479601</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1097.964082041489</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>929.0278991135822</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>778.9112597012464</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>630.9981661188533</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.1082186209429</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>316.9121193358229</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1500.405126015259</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1279.612546871729</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517213</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.2213777565</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768879</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>266.4891497944948</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>119.5992022965844</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>119.5992022965844</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>119.5992022965844</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>120.6800663848338</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>454.6048385560544</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474266</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>261.8464821474266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.8464821474266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>94.65038286230657</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.0044141548172</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>250.1757562906704</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>165.4993199086524</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,19 +8696,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>257.9017284501182</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>50.84927212317581</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>133.2530576400255</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>316.9032015413811</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,19 +9410,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>130.0020851999088</v>
+        <v>329.4296048068259</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>420.283396840471</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>51.31264782908272</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>51.31264782911217</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>51.31264782911239</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>58.45769281356546</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>109.4846820668073</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,7 +23431,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>138.3749467384731</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>137.1539338988719</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>73.85778156328831</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.58290416031697</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>73.85778156328988</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>50.66994247330494</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.1728482433094</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>92.48912964370376</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>146.8659403797825</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>13.23105492148585</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.46819046388543</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>65.06136363538417</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>140.4465591824923</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25369,10 +25369,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>6.726664722474283</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>12.04875628922497</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6960474398169083</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>55.74112246243909</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>139.4693302300325</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1158646.532128996</v>
+        <v>1158646.532128997</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1096418.634340169</v>
+        <v>1096418.634340168</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1096418.634340169</v>
+        <v>1096418.634340168</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1096418.634340168</v>
+        <v>1096418.634340169</v>
       </c>
     </row>
     <row r="8">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>324930.7156687062</v>
+        <v>324930.7156687063</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457134</v>
@@ -26323,34 +26323,34 @@
         <v>317665.4295095865</v>
       </c>
       <c r="F2" t="n">
+        <v>317665.4295095864</v>
+      </c>
+      <c r="G2" t="n">
         <v>317665.4295095865</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>317665.4295095864</v>
       </c>
-      <c r="H2" t="n">
-        <v>317665.4295095863</v>
-      </c>
       <c r="I2" t="n">
-        <v>317665.4295095864</v>
+        <v>317665.4295095865</v>
       </c>
       <c r="J2" t="n">
         <v>322673.1908474237</v>
       </c>
       <c r="K2" t="n">
-        <v>322673.1908474236</v>
+        <v>322673.1908474237</v>
       </c>
       <c r="L2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
+        <v>322858.6398760026</v>
+      </c>
+      <c r="N2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="N2" t="n">
-        <v>322858.6398760025</v>
-      </c>
       <c r="O2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
         <v>322858.6398760024</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>415.0177423586911</v>
+        <v>415.017742358868</v>
       </c>
       <c r="E3" t="n">
-        <v>726985.24334668</v>
+        <v>726985.2433466798</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>369281.343386963</v>
@@ -26396,10 +26396,10 @@
         <v>7103.649503568467</v>
       </c>
       <c r="M3" t="n">
-        <v>129543.6141568661</v>
+        <v>129543.6141568662</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196090.2818842299</v>
+        <v>196090.28188423</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26433,31 +26433,31 @@
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894855005</v>
+        <v>5781.971894855</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855415</v>
+        <v>5781.971894855411</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670398</v>
       </c>
       <c r="N4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.59260167046</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
     </row>
     <row r="5">
@@ -26488,7 +26488,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572386</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-543986.5234934777</v>
+        <v>-544008.310945209</v>
       </c>
       <c r="C6" t="n">
-        <v>44493.12395457245</v>
+        <v>44493.12395457237</v>
       </c>
       <c r="D6" t="n">
-        <v>44143.15994815945</v>
+        <v>44143.15994815921</v>
       </c>
       <c r="E6" t="n">
-        <v>-530794.055765801</v>
+        <v>-530861.2512560266</v>
       </c>
       <c r="F6" t="n">
-        <v>196191.187580879</v>
+        <v>196123.9920906531</v>
       </c>
       <c r="G6" t="n">
-        <v>196191.1875808788</v>
+        <v>196123.9920906532</v>
       </c>
       <c r="H6" t="n">
-        <v>196191.187580879</v>
+        <v>196123.9920906532</v>
       </c>
       <c r="I6" t="n">
-        <v>196191.1875808787</v>
+        <v>196123.9920906532</v>
       </c>
       <c r="J6" t="n">
-        <v>-153320.1638916329</v>
+        <v>-153356.0608734972</v>
       </c>
       <c r="K6" t="n">
-        <v>215961.1794953337</v>
+        <v>215925.2825134695</v>
       </c>
       <c r="L6" t="n">
-        <v>209564.8679468564</v>
+        <v>209530.1300214207</v>
       </c>
       <c r="M6" t="n">
-        <v>87124.90329355879</v>
+        <v>87090.16536812327</v>
       </c>
       <c r="N6" t="n">
-        <v>216668.5174504248</v>
+        <v>216633.7795249894</v>
       </c>
       <c r="O6" t="n">
-        <v>216668.5174504247</v>
+        <v>216633.7795249892</v>
       </c>
       <c r="P6" t="n">
-        <v>216668.5174504249</v>
+        <v>216633.7795249892</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>378.0846073188824</v>
+        <v>378.0846073188825</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.6833365499951</v>
+        <v>674.6833365499953</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3409431017957445</v>
+        <v>0.340943101795915</v>
       </c>
       <c r="E3" t="n">
-        <v>711.6920932744159</v>
+        <v>711.6920932744158</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,22 +26978,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>268.2643481230889</v>
       </c>
       <c r="K3" t="n">
-        <v>-4.64024042418194e-12</v>
+        <v>-4.424235022567028e-12</v>
       </c>
       <c r="L3" t="n">
         <v>9.93445162529224</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3960637954395594</v>
+        <v>0.3960637954396589</v>
       </c>
       <c r="E4" t="n">
-        <v>519.8295940549351</v>
+        <v>519.829594054935</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.8786940447131</v>
+        <v>652.8786940447133</v>
       </c>
       <c r="K4" t="n">
         <v>4.547473508864641e-13</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.8295940549351</v>
+        <v>519.829594054935</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3960637954395594</v>
+        <v>0.3960637954396589</v>
       </c>
       <c r="M4" t="n">
-        <v>519.8295940549351</v>
+        <v>519.829594054935</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>315.0737745059701</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>111.4683697503903</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>97.2126315636978</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>117.2531485529222</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27588,22 +27588,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>115.3799302556966</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15.21437995945047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>48.95472227133658</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>43.79533272974726</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>38.33815549479152</v>
+        <v>77.95373375461904</v>
       </c>
       <c r="I8" t="n">
         <v>151.8784752039286</v>
@@ -27904,10 +27904,10 @@
         <v>174.384479679596</v>
       </c>
       <c r="T8" t="n">
-        <v>216.442320444379</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2240578582465</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.1873941158265</v>
       </c>
       <c r="E10" t="n">
-        <v>69.78939807268442</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3091874436214</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.165422573704</v>
       </c>
       <c r="I10" t="n">
         <v>134.9471326156048</v>
       </c>
       <c r="J10" t="n">
-        <v>45.15649173767363</v>
+        <v>45.15649173767362</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.07126754654315</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6375476427565</v>
@@ -28062,7 +28062,7 @@
         <v>212.1348243938526</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0324785194311</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818407065907</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.602510716717613e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31516,43 +31516,43 @@
         <v>1.519938119874903</v>
       </c>
       <c r="H8" t="n">
-        <v>15.56606627016885</v>
+        <v>15.56606627016886</v>
       </c>
       <c r="I8" t="n">
-        <v>58.59741436647725</v>
+        <v>58.59741436647727</v>
       </c>
       <c r="J8" t="n">
-        <v>129.0028480017326</v>
+        <v>129.0028480017327</v>
       </c>
       <c r="K8" t="n">
-        <v>193.3418286160373</v>
+        <v>193.3418286160374</v>
       </c>
       <c r="L8" t="n">
         <v>239.857634852159</v>
       </c>
       <c r="M8" t="n">
-        <v>266.8878343914842</v>
+        <v>266.8878343914843</v>
       </c>
       <c r="N8" t="n">
-        <v>271.2063585745788</v>
+        <v>271.2063585745789</v>
       </c>
       <c r="O8" t="n">
-        <v>256.0924738950727</v>
+        <v>256.0924738950728</v>
       </c>
       <c r="P8" t="n">
-        <v>218.569001560661</v>
+        <v>218.5690015606611</v>
       </c>
       <c r="Q8" t="n">
-        <v>164.136217642641</v>
+        <v>164.1362176426411</v>
       </c>
       <c r="R8" t="n">
-        <v>95.47681292259195</v>
+        <v>95.47681292259198</v>
       </c>
       <c r="S8" t="n">
         <v>34.63558990664939</v>
       </c>
       <c r="T8" t="n">
-        <v>6.653529119752391</v>
+        <v>6.653529119752393</v>
       </c>
       <c r="U8" t="n">
         <v>0.1215950495899922</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8132385893274074</v>
+        <v>0.8132385893274077</v>
       </c>
       <c r="H9" t="n">
-        <v>7.854172691662067</v>
+        <v>7.85417269166207</v>
       </c>
       <c r="I9" t="n">
         <v>27.99966195710592</v>
       </c>
       <c r="J9" t="n">
-        <v>76.8332125118495</v>
+        <v>76.83321251184952</v>
       </c>
       <c r="K9" t="n">
         <v>131.3201979967858</v>
@@ -31613,28 +31613,28 @@
         <v>206.0561109887909</v>
       </c>
       <c r="N9" t="n">
-        <v>211.5098031075699</v>
+        <v>211.50980310757</v>
       </c>
       <c r="O9" t="n">
-        <v>193.4901480493152</v>
+        <v>193.4901480493153</v>
       </c>
       <c r="P9" t="n">
         <v>155.2929022023538</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.8091925604599</v>
+        <v>103.80919256046</v>
       </c>
       <c r="R9" t="n">
-        <v>50.49212925666133</v>
+        <v>50.49212925666134</v>
       </c>
       <c r="S9" t="n">
-        <v>15.10555011316477</v>
+        <v>15.10555011316478</v>
       </c>
       <c r="T9" t="n">
-        <v>3.277922208736347</v>
+        <v>3.277922208736348</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05350253877153998</v>
+        <v>0.05350253877154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6817919148373288</v>
+        <v>0.681791914837329</v>
       </c>
       <c r="H10" t="n">
-        <v>6.061749933735528</v>
+        <v>6.06174993373553</v>
       </c>
       <c r="I10" t="n">
-        <v>20.50334231165349</v>
+        <v>20.5033423116535</v>
       </c>
       <c r="J10" t="n">
-        <v>48.20268837899914</v>
+        <v>48.20268837899916</v>
       </c>
       <c r="K10" t="n">
-        <v>79.21182428746418</v>
+        <v>79.21182428746421</v>
       </c>
       <c r="L10" t="n">
         <v>101.3638634113607</v>
       </c>
       <c r="M10" t="n">
-        <v>106.8739817049096</v>
+        <v>106.8739817049097</v>
       </c>
       <c r="N10" t="n">
         <v>104.3327572950615</v>
       </c>
       <c r="O10" t="n">
-        <v>96.36818810809811</v>
+        <v>96.36818810809814</v>
       </c>
       <c r="P10" t="n">
-        <v>82.45963304541654</v>
+        <v>82.45963304541655</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.09077570515124</v>
+        <v>57.09077570515125</v>
       </c>
       <c r="R10" t="n">
-        <v>30.65584373441298</v>
+        <v>30.65584373441299</v>
       </c>
       <c r="S10" t="n">
         <v>11.88177364311963</v>
       </c>
       <c r="T10" t="n">
-        <v>2.913110908850404</v>
+        <v>2.913110908850405</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03718864990021798</v>
+        <v>0.03718864990021799</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32318,7 +32318,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -33020,34 +33020,34 @@
         <v>28.21138103088193</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K27" t="n">
-        <v>348.1857632660223</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745732</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>740.1323715504309</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927647</v>
+        <v>289.323958302397</v>
       </c>
       <c r="O27" t="n">
         <v>694.9967242426213</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S27" t="n">
         <v>54.25758340862166</v>
@@ -33257,10 +33257,10 @@
         <v>28.21138103088182</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530528</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>196.1379567971706</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33275,16 +33275,16 @@
         <v>759.7214730927615</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>344.3187317060057</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436708</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862144</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M36" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>225.4828684302374</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>437.853104691376</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>153.9723775119818</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.0535586471201</v>
+        <v>117.0535586471202</v>
       </c>
       <c r="K8" t="n">
-        <v>297.3973901422215</v>
+        <v>297.3973901422216</v>
       </c>
       <c r="L8" t="n">
         <v>421.7524344326222</v>
       </c>
       <c r="M8" t="n">
-        <v>486.0551346570439</v>
+        <v>486.0551346570441</v>
       </c>
       <c r="N8" t="n">
-        <v>479.1402193899721</v>
+        <v>479.1402193899722</v>
       </c>
       <c r="O8" t="n">
-        <v>406.7944437361314</v>
+        <v>406.7944437361315</v>
       </c>
       <c r="P8" t="n">
-        <v>309.1347139768741</v>
+        <v>309.1347139768742</v>
       </c>
       <c r="Q8" t="n">
-        <v>154.1455184280962</v>
+        <v>154.1455184280963</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.08662118559167</v>
       </c>
       <c r="K9" t="n">
         <v>257.9439960350054</v>
       </c>
       <c r="L9" t="n">
-        <v>408.8621776492574</v>
+        <v>288.1975886364687</v>
       </c>
       <c r="M9" t="n">
         <v>529.6271408167725</v>
@@ -35264,13 +35264,13 @@
         <v>559.5104653677902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.7562228816003</v>
+        <v>444.7562228816004</v>
       </c>
       <c r="P9" t="n">
-        <v>339.7812634279607</v>
+        <v>339.7812634279608</v>
       </c>
       <c r="Q9" t="n">
-        <v>129.3267383830908</v>
+        <v>173.9047062102875</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.94233246158133</v>
+        <v>56.94233246158136</v>
       </c>
       <c r="L10" t="n">
         <v>128.9538886716769</v>
@@ -35346,7 +35346,7 @@
         <v>120.9533160221378</v>
       </c>
       <c r="P10" t="n">
-        <v>79.73819231031003</v>
+        <v>79.73819231031004</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
@@ -35416,19 +35416,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>656.6637146694901</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>388.0405586785763</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>324.040058608738</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>654.0944880967816</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -35966,7 +35966,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>682.3039206128201</v>
+        <v>881.7314402197374</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,22 +36364,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>972.5852322533825</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36601,7 +36601,7 @@
         <v>625.7775560664402</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020592</v>
+        <v>779.6000841311419</v>
       </c>
       <c r="N26" t="n">
         <v>744.732300926371</v>
@@ -36616,7 +36616,7 @@
         <v>367.2547334404118</v>
       </c>
       <c r="R26" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K27" t="n">
-        <v>210.3443242916633</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L27" t="n">
-        <v>495.689225094699</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>597.9983376284126</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094314</v>
+        <v>157.9822462190637</v>
       </c>
       <c r="O27" t="n">
         <v>552.4004797981769</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>474.3741250380603</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664365</v>
+        <v>677.0902038955487</v>
       </c>
       <c r="M29" t="n">
         <v>728.2874363020552</v>
       </c>
       <c r="N29" t="n">
-        <v>796.0449487554793</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O29" t="n">
         <v>689.7596327870057</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.049527853052794</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>69.30033013050392</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,16 +36923,16 @@
         <v>628.3797610094282</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981739</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>210.3443242916754</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970686</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M36" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>82.88662398579301</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>303.8786972770457</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>27.1347508453151</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
